--- a/output/fit_clients/fit_round_85.xlsx
+++ b/output/fit_clients/fit_round_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6524102640.074097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003771826593991101</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4211395555882854</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.782566193295068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.748547199200171</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.782566193295068</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6654505588.303954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00594834948132063</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.373566905746407</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8947372828321263</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.373566905746407</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5676868717.843109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002655700399275385</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4778234790916202</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.634411034537282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.8166464035972539</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.634411034537282</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4572912197.473738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003656772948793222</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.519982603257728</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8374870712717793</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.519982603257728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7417236999.33874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00240259481270727</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.240533517406049</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.857706027915388</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.240533517406049</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6599559890.795433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001218021902850795</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.428931599684403</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.907999340464236</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.428931599684403</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6542027077.883451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002991411604375948</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.146328827416374</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.953132225917726</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.146328827416374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4838808001.236231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003982159646822075</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.730269728326768</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8900627215878463</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.730269728326768</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3790659014.195883</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005012761013351377</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01975566379348912</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.430851144716943</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.4193844225634846</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.430851144716943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4401033755.82993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001139162073308923</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.344354980049303</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7825175992042482</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.344354980049303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9277125799.636427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001996636656436236</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.769508146062734</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9730281802505321</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.769508146062734</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6489264707.362349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.0035689715053342</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.36758131874385</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.018503304835348</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.36758131874385</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8856239901.254807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002602016821954452</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.755641688018129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8891379823949954</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.755641688018129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5804302916.833387</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004662789626275276</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.122824084460472</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9840169558876928</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.122824084460472</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5753373401.055215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004386697084719149</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.931225535770329</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9136263827462396</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.931225535770329</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5095787513.222948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002182845045475462</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8637544163959697</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.781452755762548</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.159779270336023</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.781452755762548</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5139082564.335867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.00104625182524146</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.629428303115113</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9107132875676353</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.629428303115113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4359507557.326422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002150491910935828</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.532059485310573</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9033209228435798</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.532059485310573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5427118891.819121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001103662037873368</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6007312355357696</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.70196454120716</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8172902437711614</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.70196454120716</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6994991650.34639</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004761603657388709</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.763878813891057</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8665136381832925</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.763878813891057</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5488286584.941286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004260604564755699</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.446915007163014</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7853407808060897</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.446915007163014</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7299932915.425793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001593318145300167</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.177908521570056</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8549004013104032</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.177908521570056</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6185173036.929837</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00471756784986054</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.784202804941893</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.979248247725254</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.784202804941893</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4956129537.964062</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00309521295954818</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.155934070392568</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9415821392428247</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.155934070392568</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4809250620.362004</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009838894916433302</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.174759391271851</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8094528381462137</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.174759391271851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6581110309.507948</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003146082045836137</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.550003437044103</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9232651639593751</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.550003437044103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8001476665.643726</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004224442573881602</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.791579034574549</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9071650684233965</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.791579034574549</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5410060127.323667</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001040855758377146</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.870001633853487</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9738732649501078</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.870001633853487</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8535808169.148498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004092015895399329</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.213264160803338</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8615339905157985</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.213264160803338</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7495260244.45382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002311864802469481</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.472519991435493</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.948538357702128</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.472519991435493</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3491876249.399685</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001046994523110843</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.630204440981503</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8994603481679041</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.630204440981503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6874646561.695848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003149408922422955</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.065693059125961</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8491155388493219</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.065693059125961</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6174097201.298854</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005763948991005286</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.745148989997816</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7460249509075088</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.745148989997816</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5523537885.568951</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002533663387252422</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.591970612776709</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9175622967910866</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.591970612776709</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6523233113.005683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002769414435093052</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.594655085539113</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.001913727145929</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.594655085539113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6387122156.148138</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005486890386271474</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.516468334927759</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.989461971722403</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.516468334927759</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3590319023.704563</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00497711786391307</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.444130497738032</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8943140582770044</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.444130497738032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4059240530.011827</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002455213214110469</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.056720159121793</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8635174380213618</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.056720159121793</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5357999271.096523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004508980721931392</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.650257829844977</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9631618642417765</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.650257829844977</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6775731857.116773</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001197547748653341</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8793704308321405</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.992598625860012</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.16099508982157</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.992598625860012</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6017799183.407047</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004803326880045551</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3671798310224013</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.423734916579367</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7076298270197811</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.423734916579367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6940824733.982912</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003181524442974365</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.717696300856079</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9109211147960156</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.717696300856079</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5300619360.350593</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001914697726920153</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.362762652313767</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9077187126789132</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.362762652313767</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3751617515.639911</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001505791875676376</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.960053111491888</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9509376008298586</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.960053111491888</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7267120569.786819</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003518593107765612</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.424349902830235</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8016807474566646</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.424349902830235</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8582326977.723848</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002743057206368595</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.515206441275471</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8895636695568081</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.515206441275471</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6955380624.629591</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00294119430939001</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.019636083860419</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9396317078868118</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.019636083860419</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4002318438.302622</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004367794038721057</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.475236703648747</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8568227876326179</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.475236703648747</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8558987567.63807</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003637213544699736</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4129216870407628</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.310627613062774</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.8187725039254182</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.310627613062774</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4340426733.430461</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005192825525319182</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.410888699188062</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9336858440261403</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.410888699188062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8659155388.387405</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001392993773857619</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.530677226843622</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8428334640484547</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.530677226843622</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5442469376.308696</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002880047378321437</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.61309974542187</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9120313367604768</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.61309974542187</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6631052034.479481</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003859567868537711</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.319247079823691</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8362778920284188</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.319247079823691</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9085030202.596844</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004436483646156826</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.390313442730033</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8890643373965599</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.390313442730033</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4529157006.501819</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00250671712886992</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.561660359503014</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8931818140669898</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.561660359503014</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8382789121.951269</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003238671640016678</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8715529589325554</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.483442576498572</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.033229534813924</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.483442576498572</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5607707044.182431</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00219234521112933</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>18</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8164476996122181</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.311839171153776</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.007312332054746</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.311839171153776</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5439001294.502606</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003891820125000707</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.488278082101382</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8783298292244637</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.488278082101382</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4925374506.247022</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004276117362449361</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.221192856739204</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8031777436679433</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.221192856739204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6467204070.712553</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005136662693233463</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5831175465465862</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.786962734774332</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8937663706991028</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.786962734774332</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6595485258.550767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003580564045403987</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>17</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.107225932757654</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8608745908244588</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.107225932757654</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6648153817.984108</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004645283616153463</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.117147671173899</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8694242053458463</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.117147671173899</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4938979895.268016</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003460683693222047</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.636700305153148</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8813499668140935</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.636700305153148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6518684523.274703</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003727940528108803</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>21</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2460021394448834</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.741657113320355</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.4967664133023716</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.741657113320355</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5514792325.833269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003259875592563577</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.634347176271284</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.897491334308348</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.634347176271284</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6790922099.863494</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005683455922396965</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.852854020585376</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8707377573685779</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.852854020585376</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7161592963.632101</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002132330047209791</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.209874971709196</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7109477056319727</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.209874971709196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5882711408.824799</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0007941353060099304</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.044485784587083</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9714032128950775</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.044485784587083</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6308805748.577932</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002931185892204883</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.784532950307789</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.678915917167537</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.042671466338033</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.678915917167537</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5094552545.822704</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00372518010076094</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.630347485283333</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7854241514647849</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.630347485283333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6590015018.969179</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002204293295129042</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.522859510909184</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.036844041641961</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.522859510909184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8071329798.665749</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00133125048827918</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.843602760856033</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9516034006170863</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.843602760856033</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5712311662.588322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003408869587610172</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.462105150117125</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8585204117686467</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.462105150117125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5556929068.61438</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00322110279335909</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.609060472023325</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8608745908244588</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.609060472023325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6269795906.566875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002399150095929476</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.488453058544971</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.4727889717037675</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.488453058544971</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5659312028.687469</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004876333898977741</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.135206212498917</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9826028277817361</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.135206212498917</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5287487846.711818</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00319491671055049</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.634711159347937</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9164587751997619</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.634711159347937</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6844057958.989486</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001797157289869944</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.7853781896537</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9452014287730867</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.7853781896537</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5243854261.075418</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003430490163616419</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2007878769670717</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.588290265339853</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.371737662237926</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.588290265339853</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5983732499.330523</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00443087553157514</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.329138461830381</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9780877359926293</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.329138461830381</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8349164600.337588</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005067880682047332</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.42222808308134</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8720411420804947</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.42222808308134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6994787130.835534</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003310638113924596</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7443865412941606</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.127456503840827</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9465158282494996</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.127456503840827</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5397654369.453719</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005033233641323384</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.372481137805839</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9421155581567113</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.372481137805839</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4475740308.541917</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003644901738828874</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.183206109082093</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8851415843297246</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.183206109082093</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5818352892.848372</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002245965058698496</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.66285452443383</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9685962890792489</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.66285452443383</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4857644335.539671</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001338975058308094</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.140017208195007</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9495356455536978</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.140017208195007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8939371554.928089</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003667041910535123</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.531443218547428</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.838017136288019</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.531443218547428</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6518591973.414863</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003598931478455036</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.870300988666702</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9464714512522479</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.870300988666702</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6196508281.897934</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003596135181493621</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>15</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.606688486235397</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9380808805478398</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.606688486235397</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5236288867.440442</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004614068811378295</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.729497722924735</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8027878132935603</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.729497722924735</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4322405803.119989</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004114140044011299</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6993154994446902</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.93582820848061</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.144806960856226</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.93582820848061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5396014357.605313</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001349750121764169</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.543230786506017</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9166652998066488</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.543230786506017</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6274204798.02309</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001415790538341938</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.8175246330932</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9954549990201453</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.8175246330932</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7376960081.679531</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002305467293659651</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.698781368787472</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9116161411335207</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.698781368787472</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7325483101.603854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002079466012532645</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.248181658263339</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8989665131479246</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.248181658263339</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7426353177.874105</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005148644520280269</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.739175243125546</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8804160762845502</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.739175243125546</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8615982988.138241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003280461190822134</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8753996099709848</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.342644011346966</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.071388616469941</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.342644011346966</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2543471627.312429</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00589601140167458</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9920728531138183</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.339697444196719</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.204079405652088</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.339697444196719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4570451875.80687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002240942947772109</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5928145987467598</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.60905000756206</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8182371452416617</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.60905000756206</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5967039119.295162</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001295967013364498</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.627807059970452</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.193281352266419</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.627807059970452</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_85.xlsx
+++ b/output/fit_clients/fit_round_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6524102640.074097</v>
+        <v>1758369940.612703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003771826593991101</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.07847579399477166</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03470947730841376</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>879184933.3548925</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6654505588.303954</v>
+        <v>2428683002.407907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00594834948132063</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21</v>
+        <v>0.1815901668198867</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04406501226652716</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1214341607.565466</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5676868717.843109</v>
+        <v>3693438114.286233</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002655700399275385</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
+        <v>0.1330571658510843</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02533580871046527</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1846719049.524089</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4572912197.473738</v>
+        <v>3916008770.032681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003656772948793222</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08539658104495479</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04453345141534552</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1958004394.223053</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7417236999.33874</v>
+        <v>2809922065.154986</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00240259481270727</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
+        <v>0.1163250771488258</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04286763928614248</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1404960974.451142</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6599559890.795433</v>
+        <v>2896677458.562198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001218021902850795</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.07462516350739687</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03218276273879608</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>26</v>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1448338704.073104</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6542027077.883451</v>
+        <v>3087228647.128979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002991411604375948</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.2090423921411835</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0257035196970711</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1543614389.918158</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4838808001.236231</v>
+        <v>1580381337.746703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003982159646822075</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26</v>
+        <v>0.1648305384093987</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02824709268139404</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>790190753.6354178</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3790659014.195883</v>
+        <v>4887865587.975409</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005012761013351377</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2094916811621217</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04162434222679982</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2443932884.5365</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4401033755.82993</v>
+        <v>3366349785.709956</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001139162073308923</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1688346226224725</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03435536420088906</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1683174861.244434</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9277125799.636427</v>
+        <v>2315191902.017918</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001996636656436236</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24</v>
+        <v>0.130908134422608</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04186902111235333</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1157595906.233721</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6489264707.362349</v>
+        <v>3525638434.701829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0035689715053342</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17</v>
+        <v>0.07367173129607466</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02029450206062878</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1762819296.296384</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8856239901.254807</v>
+        <v>2612985151.712506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002602016821954452</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20</v>
+        <v>0.1708672355550435</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03476682343796374</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1306492638.231767</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5804302916.833387</v>
+        <v>1139988340.524235</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004662789626275276</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>24</v>
+        <v>0.09791936351652052</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04210430311094673</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>569994174.066378</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5753373401.055215</v>
+        <v>2203174088.606035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004386697084719149</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>27</v>
+        <v>0.08124812595138427</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0510055686957072</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1101587101.551445</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5095787513.222948</v>
+        <v>3811399464.674059</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002182845045475462</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1167075806386534</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03495994239766393</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1905699776.130953</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5139082564.335867</v>
+        <v>3116037092.776106</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00104625182524146</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24</v>
+        <v>0.1804672118432094</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02575838563334105</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1558018568.125288</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4359507557.326422</v>
+        <v>1280275941.860129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002150491910935828</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1381458873972098</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01878824600830835</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>640138068.2851194</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5427118891.819121</v>
+        <v>1952458385.320288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001103662037873368</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1502484436982029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02446481907797672</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>976229224.0044012</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6994991650.34639</v>
+        <v>1810730255.406145</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004761603657388709</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16</v>
+        <v>0.0754522704071826</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03320520408474378</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>905365181.6839695</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5488286584.941286</v>
+        <v>2750355210.286196</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004260604564755699</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.1176967809063069</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05086344166375313</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1375177681.541967</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7299932915.425793</v>
+        <v>1500568639.734884</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001593318145300167</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1847024511645533</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03395774283749513</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>750284305.628232</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6185173036.929837</v>
+        <v>2888697577.260245</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00471756784986054</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.1209102836856615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03639581424164515</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1444348831.25349</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4956129537.964062</v>
+        <v>1231137053.550608</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00309521295954818</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19</v>
+        <v>0.1162554772006653</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03072286550158168</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>615568537.5015703</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4809250620.362004</v>
+        <v>1044351903.560712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009838894916433302</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09202216590526875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.027665067534665</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>522175934.6076284</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6581110309.507948</v>
+        <v>4464883389.016542</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003146082045836137</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1265403947803193</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01708007728694944</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2232441681.467313</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8001476665.643726</v>
+        <v>3558747907.240236</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004224442573881602</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>21</v>
+        <v>0.1460347977249602</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03358506073523562</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1779374013.290038</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5410060127.323667</v>
+        <v>3963907666.859963</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001040855758377146</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21</v>
+        <v>0.1180399200919416</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02912192315155412</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1981953852.687764</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8535808169.148498</v>
+        <v>1812381160.527073</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004092015895399329</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>26</v>
+        <v>0.121143980083076</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03249696539541485</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>906190596.2514086</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7495260244.45382</v>
+        <v>954649933.9803247</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002311864802469481</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17</v>
+        <v>0.1048810974884724</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04261841370463806</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>477324976.1172383</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3491876249.399685</v>
+        <v>1624189339.570908</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001046994523110843</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07936793356054914</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03575533286707301</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>812094763.7752093</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6874646561.695848</v>
+        <v>2391771600.138144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003149408922422955</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.1659873625657464</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0406009958331885</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1195885847.413221</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6174097201.298854</v>
+        <v>1027793482.689214</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005763948991005286</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>26</v>
+        <v>0.08004619117582983</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02153430492166459</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>513896774.565259</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5523537885.568951</v>
+        <v>913927062.2656314</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002533663387252422</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22</v>
+        <v>0.08496481066592025</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0367968551415634</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>456963568.5052507</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6523233113.005683</v>
+        <v>2790536400.812079</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002769414435093052</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.1165905417656785</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0203974197637389</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1395268199.027856</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6387122156.148138</v>
+        <v>2503487589.531027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005486890386271474</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.09616059442448828</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03399982027773396</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>22</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1251743891.219211</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3590319023.704563</v>
+        <v>2086869311.812092</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00497711786391307</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07586542803167715</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0307513061774439</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1043434622.183522</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4059240530.011827</v>
+        <v>2167190091.699563</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002455213214110469</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1350800951273866</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02613324272777998</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1083595014.9115</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5357999271.096523</v>
+        <v>1622386602.710931</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004508980721931392</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1182834176877211</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05232915100349474</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>811193236.8239723</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6775731857.116773</v>
+        <v>2809311461.172143</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001197547748653341</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1556706799853616</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04293036985772382</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>24</v>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1404655725.490396</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6017799183.407047</v>
+        <v>3309476967.35023</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004803326880045551</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.09236551091228475</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03543883421927668</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1654738465.335016</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2847925682.587884</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1965249972218105</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02377483901926848</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6940824733.982912</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.003181524442974365</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+      <c r="I43" t="n">
+        <v>30</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1423962854.87516</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5300619360.350593</v>
+        <v>1884625059.75183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001914697726920153</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>23</v>
+        <v>0.09696498063687674</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02390115350947862</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>942312613.1119484</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3751617515.639911</v>
+        <v>2145019599.684977</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001505791875676376</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1755661829581554</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05392630174167457</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1072509805.229593</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7267120569.786819</v>
+        <v>3689080750.2369</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003518593107765612</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.1257612113234786</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05596264545423964</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>13</v>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1844540326.768456</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8582326977.723848</v>
+        <v>4419001002.890146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002743057206368595</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1229732859295216</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05190060067689947</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2209500524.23147</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3071114143.076223</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06674335748259595</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02593242772891738</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6955380624.629591</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00294119430939001</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1535557159.829458</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4002318438.302622</v>
+        <v>1301519163.586738</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004367794038721057</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1208622668503329</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04238171931947785</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>650759644.6079124</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8558987567.63807</v>
+        <v>3300788874.072681</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003637213544699736</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.1628458057783716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0413976914086089</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1650394475.381048</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4340426733.430461</v>
+        <v>1078243942.761133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005192825525319182</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1278227284349536</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05357083983392333</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>539122042.5918788</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8659155388.387405</v>
+        <v>4632414393.737967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001392993773857619</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1329932411216094</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05274952756764327</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>20</v>
+      <c r="I52" t="n">
+        <v>35</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2316207216.048621</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5442469376.308696</v>
+        <v>3267474204.072182</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002880047378321437</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.1523831561800618</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02948119602257831</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1633737115.935729</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6631052034.479481</v>
+        <v>3173188834.137521</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003859567868537711</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+        <v>0.1391871724082804</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04533801728676933</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1586594416.163438</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9085030202.596844</v>
+        <v>3763265151.892343</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004436483646156826</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>27</v>
+        <v>0.2115221905613573</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02409389404180499</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1881632540.321359</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4529157006.501819</v>
+        <v>1262365214.000628</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00250671712886992</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.129469214935401</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05239869273131606</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>631182684.3918679</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8382789121.951269</v>
+        <v>4009733409.748432</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003238671640016678</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1406831205644997</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01723413203401735</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2004866793.973617</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5607707044.182431</v>
+        <v>1690889970.339276</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00219234521112933</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1931931945446508</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03624084657668693</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>845444998.8023247</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5439001294.502606</v>
+        <v>3806724317.450608</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003891820125000707</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1094043864887456</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04070302998347412</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1903362143.895195</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4925374506.247022</v>
+        <v>3014917952.331979</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004276117362449361</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1485359800441309</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03144134332773647</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1507459047.998698</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6467204070.712553</v>
+        <v>3198889777.544706</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005136662693233463</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1106400583216882</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02552092546206411</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1599444850.407942</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6595485258.550767</v>
+        <v>1432233419.363171</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003580564045403987</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>14</v>
+        <v>0.1259692316572101</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03553822680076261</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>716116682.5037464</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6648153817.984108</v>
+        <v>4651490289.04748</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004645283616153463</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>21</v>
+        <v>0.06675765404941589</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03179515617256002</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2325745177.758696</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4938979895.268016</v>
+        <v>3522639711.845658</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003460683693222047</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1338786394968518</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02572842424466631</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1761319858.125324</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6518684523.274703</v>
+        <v>5450103607.700512</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003727940528108803</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.112104437157834</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02651602868426167</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2725051735.809526</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5514792325.833269</v>
+        <v>4541914007.95047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003259875592563577</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>18</v>
+        <v>0.1220294933746748</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04823221339565809</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2270957006.511044</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6790922099.863494</v>
+        <v>2211782752.050511</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005683455922396965</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.08082645401330403</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04119752395444812</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1105891460.952413</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7161592963.632101</v>
+        <v>3848114045.07664</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002132330047209791</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>18</v>
+        <v>0.1434146601852092</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03148087237955201</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1924057009.055439</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5882711408.824799</v>
+        <v>1763758533.971052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007941353060099304</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1395543901010334</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04679626769970922</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>881879241.2901887</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6308805748.577932</v>
+        <v>2524060572.523458</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002931185892204883</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.08710189980433729</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03310143653202539</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1262030232.190997</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5094552545.822704</v>
+        <v>3776888249.623309</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00372518010076094</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1469229293980117</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02652690998859866</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1888444139.12962</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6590015018.969179</v>
+        <v>1455946347.173265</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002204293295129042</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.0764811918436633</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05177746992597368</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>727973207.5976522</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8071329798.665749</v>
+        <v>3062586242.58623</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00133125048827918</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.1087098726391572</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04856969448953195</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1531293111.470684</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5712311662.588322</v>
+        <v>3264188678.859324</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003408869587610172</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18</v>
+        <v>0.1765393211420124</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02139496311308073</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1632094381.871864</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5556929068.61438</v>
+        <v>1539587326.725367</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00322110279335909</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.1182244941859056</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03161278217516317</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>769793670.6889396</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3802003622.719883</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.07641626528325245</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02906237805757285</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6269795906.566875</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.002399150095929476</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17</v>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1901001787.689677</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5659312028.687469</v>
+        <v>1456847000.605725</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004876333898977741</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1752002910814232</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0314885475118793</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>728423481.5036374</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5287487846.711818</v>
+        <v>4794904862.376472</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00319491671055049</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.0871988980655463</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05506082333672513</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>30</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2397452339.908312</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6844057958.989486</v>
+        <v>1479321283.142362</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001797157289869944</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1452967930604905</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02786702528089928</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>739660672.0918816</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5243854261.075418</v>
+        <v>4847735720.578171</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003430490163616419</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.07996069349543894</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03160240310723291</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2423867901.833857</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5983732499.330523</v>
+        <v>4728401744.298611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00443087553157514</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.08760670518304949</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02244896179337582</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2364200862.35279</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8349164600.337588</v>
+        <v>4215394962.037155</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005067880682047332</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1888619455372766</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02015963653764929</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2107697508.702387</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6994787130.835534</v>
+        <v>2424877601.11703</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003310638113924596</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1272415047221182</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03476684891437042</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1212438838.665934</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5397654369.453719</v>
+        <v>2555321939.514647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005033233641323384</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>22</v>
+        <v>0.1200079241314468</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0409341870325357</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1277660893.375577</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4475740308.541917</v>
+        <v>2363156058.674551</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003644901738828874</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1114296650545856</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04847253435439407</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1181578019.090595</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5818352892.848372</v>
+        <v>2330229000.344035</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002245965058698496</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>22</v>
+        <v>0.1566265377544743</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02035865849151817</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1165114573.635111</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4857644335.539671</v>
+        <v>954502620.4197551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001338975058308094</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1702034486035092</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03086366764292488</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>477251302.7646382</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8939371554.928089</v>
+        <v>3598411220.828623</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003667041910535123</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>20</v>
+        <v>0.1587925531295697</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02922906156159026</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1799205699.895165</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6518591973.414863</v>
+        <v>3471246157.135209</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003598931478455036</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>19</v>
+        <v>0.1504267767539627</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03509272003068786</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1735623082.039557</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6196508281.897934</v>
+        <v>1712479069.585925</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003596135181493621</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>15</v>
+        <v>0.08659122529692287</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05551673628421874</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>856239552.3601223</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5236288867.440442</v>
+        <v>1464849170.386125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004614068811378295</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.147716690757091</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04677843845660698</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>732424628.6981777</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4322405803.119989</v>
+        <v>2530718084.624251</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004114140044011299</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08600345195804023</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0472163182989286</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1265359028.498887</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5396014357.605313</v>
+        <v>3118946681.119093</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001349750121764169</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>29</v>
+        <v>0.1179776625848813</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04296061303364693</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1559473398.070291</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6274204798.02309</v>
+        <v>2202941511.070379</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001415790538341938</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>28</v>
+        <v>0.1165943556683384</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03833481014102914</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1101470780.270549</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7376960081.679531</v>
+        <v>2698054005.048192</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002305467293659651</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>21</v>
+        <v>0.1112895672172843</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04328583427967121</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1349027024.122496</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7325483101.603854</v>
+        <v>1554968198.681809</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002079466012532645</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>22</v>
+        <v>0.1089227708505101</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04716899896638661</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>777484133.7578961</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7426353177.874105</v>
+        <v>3286448730.552901</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005148644520280269</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>22</v>
+        <v>0.1728051599967125</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02379759552313204</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1643224364.193429</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8615982988.138241</v>
+        <v>3737937451.138425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003280461190822134</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>32</v>
+        <v>0.1148093816897277</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02486321621952278</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1868968760.215796</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2543471627.312429</v>
+        <v>3006897549.418808</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00589601140167458</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1161761543324025</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03221255294331318</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1503448761.116426</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4570451875.80687</v>
+        <v>3676150579.11575</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002240942947772109</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1389318458792037</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02721702723404358</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1838075334.28477</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5967039119.295162</v>
+        <v>2255796797.335639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001295967013364498</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>27</v>
+        <v>0.1438178572067668</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0416874329426871</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1127898389.314654</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_85.xlsx
+++ b/output/fit_clients/fit_round_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1758369940.612703</v>
+        <v>1994595087.369576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07847579399477166</v>
+        <v>0.1005705302250815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03470947730841376</v>
+        <v>0.03061584516392648</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>879184933.3548925</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2428683002.407907</v>
+        <v>1861603957.554228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1815901668198867</v>
+        <v>0.1590794899661821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04406501226652716</v>
+        <v>0.04595445877206941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1214341607.565466</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3693438114.286233</v>
+        <v>5018930706.109368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1330571658510843</v>
+        <v>0.1642926658159521</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02533580871046527</v>
+        <v>0.03613886747141102</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1846719049.524089</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3916008770.032681</v>
+        <v>3442865937.464991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08539658104495479</v>
+        <v>0.106133635858468</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04453345141534552</v>
+        <v>0.0432535650007428</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1958004394.223053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2809922065.154986</v>
+        <v>1829604234.686234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163250771488258</v>
+        <v>0.1175470793739641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04286763928614248</v>
+        <v>0.05423355975023137</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1404960974.451142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2896677458.562198</v>
+        <v>2547470964.971265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07462516350739687</v>
+        <v>0.07763077921009774</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03218276273879608</v>
+        <v>0.03729789585927305</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1448338704.073104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3087228647.128979</v>
+        <v>3365305566.665418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2090423921411835</v>
+        <v>0.1402635219426711</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0257035196970711</v>
+        <v>0.02741437915827908</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1543614389.918158</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1580381337.746703</v>
+        <v>1435494636.812651</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1648305384093987</v>
+        <v>0.1578209795737207</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02824709268139404</v>
+        <v>0.03655970052969563</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>790190753.6354178</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4887865587.975409</v>
+        <v>5572067350.212342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2094916811621217</v>
+        <v>0.1419236916493254</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04162434222679982</v>
+        <v>0.05180408953505698</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2443932884.5365</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3366349785.709956</v>
+        <v>3178790118.880902</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1688346226224725</v>
+        <v>0.1491803914316915</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03435536420088906</v>
+        <v>0.0445944345430567</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1683174861.244434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2315191902.017918</v>
+        <v>3150015096.849944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.130908134422608</v>
+        <v>0.172040161698548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04186902111235333</v>
+        <v>0.03283235525362831</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1157595906.233721</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3525638434.701829</v>
+        <v>3368672628.960961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07367173129607466</v>
+        <v>0.0702240847942134</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02029450206062878</v>
+        <v>0.0286687696100346</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1762819296.296384</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2612985151.712506</v>
+        <v>2647237013.332563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1708672355550435</v>
+        <v>0.1291512332133536</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03476682343796374</v>
+        <v>0.02805365760277233</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1306492638.231767</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1139988340.524235</v>
+        <v>1287450844.514554</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09791936351652052</v>
+        <v>0.0984438123984509</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04210430311094673</v>
+        <v>0.04951137551733815</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>569994174.066378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2203174088.606035</v>
+        <v>1776816613.75141</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08124812595138427</v>
+        <v>0.09836174039016524</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0510055686957072</v>
+        <v>0.0433277826661217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1101587101.551445</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3811399464.674059</v>
+        <v>3404360857.351561</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1167075806386534</v>
+        <v>0.1410155720882612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03495994239766393</v>
+        <v>0.05106196993679851</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1905699776.130953</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3116037092.776106</v>
+        <v>3867052974.40578</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1804672118432094</v>
+        <v>0.1257221711015214</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02575838563334105</v>
+        <v>0.02408600480755933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1558018568.125288</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1280275941.860129</v>
+        <v>1037429782.080364</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1381458873972098</v>
+        <v>0.1338819581973973</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01878824600830835</v>
+        <v>0.02633189369469645</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>640138068.2851194</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1952458385.320288</v>
+        <v>2089887007.051546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1502484436982029</v>
+        <v>0.115376112729305</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02446481907797672</v>
+        <v>0.02853443163731073</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>976229224.0044012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1810730255.406145</v>
+        <v>2651471796.519053</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0754522704071826</v>
+        <v>0.09232269291741946</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03320520408474378</v>
+        <v>0.03591984711455985</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>905365181.6839695</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2750355210.286196</v>
+        <v>2886835709.358833</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1176967809063069</v>
+        <v>0.1217196799291378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05086344166375313</v>
+        <v>0.04870527912968205</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1375177681.541967</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500568639.734884</v>
+        <v>1401191400.275724</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1847024511645533</v>
+        <v>0.1414342780165155</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03395774283749513</v>
+        <v>0.0403838248615879</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>750284305.628232</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2888697577.260245</v>
+        <v>3429839688.266782</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1209102836856615</v>
+        <v>0.117746127418736</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03639581424164515</v>
+        <v>0.02491514079307618</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1444348831.25349</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1231137053.550608</v>
+        <v>1255192274.693576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1162554772006653</v>
+        <v>0.08770264477676144</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03072286550158168</v>
+        <v>0.0217498045461373</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>615568537.5015703</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1044351903.560712</v>
+        <v>1128488124.463007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09202216590526875</v>
+        <v>0.1152859954799694</v>
       </c>
       <c r="G26" t="n">
-        <v>0.027665067534665</v>
+        <v>0.02542028516643594</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>522175934.6076284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4464883389.016542</v>
+        <v>3622648198.550056</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1265403947803193</v>
+        <v>0.1322907281352702</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01708007728694944</v>
+        <v>0.01851239412129074</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2232441681.467313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3558747907.240236</v>
+        <v>3389913312.635952</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1460347977249602</v>
+        <v>0.1267114075886274</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03358506073523562</v>
+        <v>0.04063717286263754</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1779374013.290038</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3963907666.859963</v>
+        <v>4687586980.725986</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180399200919416</v>
+        <v>0.1314055550757612</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02912192315155412</v>
+        <v>0.03083064927710806</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1981953852.687764</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1812381160.527073</v>
+        <v>2143586674.647355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.121143980083076</v>
+        <v>0.1102336256074453</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03249696539541485</v>
+        <v>0.02904427697130244</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>906190596.2514086</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>954649933.9803247</v>
+        <v>1265499621.494772</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048810974884724</v>
+        <v>0.09541222357968658</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04261841370463806</v>
+        <v>0.04799178203120964</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>477324976.1172383</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1624189339.570908</v>
+        <v>1794123587.298661</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07936793356054914</v>
+        <v>0.1088718224981181</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03575533286707301</v>
+        <v>0.02624752862562856</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>812094763.7752093</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2391771600.138144</v>
+        <v>2525146968.98961</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1659873625657464</v>
+        <v>0.1518625164968447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0406009958331885</v>
+        <v>0.03938041778847905</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1195885847.413221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1027793482.689214</v>
+        <v>1256377837.63117</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08004619117582983</v>
+        <v>0.07873455904708214</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02153430492166459</v>
+        <v>0.01795103082281465</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>513896774.565259</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913927062.2656314</v>
+        <v>1364127052.315641</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08496481066592025</v>
+        <v>0.07237375170561193</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0367968551415634</v>
+        <v>0.04336359694150357</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>456963568.5052507</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2790536400.812079</v>
+        <v>2981063230.93627</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1165905417656785</v>
+        <v>0.1474370775988859</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0203974197637389</v>
+        <v>0.02839735012958314</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>21</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1395268199.027856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2503487589.531027</v>
+        <v>2904119884.104379</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09616059442448828</v>
+        <v>0.07506047906141133</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03399982027773396</v>
+        <v>0.03396019059319162</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>22</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1251743891.219211</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2086869311.812092</v>
+        <v>1416232744.583676</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07586542803167715</v>
+        <v>0.1204128083026426</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0307513061774439</v>
+        <v>0.03175764890447388</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1043434622.183522</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2167190091.699563</v>
+        <v>1533262763.664158</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1350800951273866</v>
+        <v>0.1839656573107202</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02613324272777998</v>
+        <v>0.02677767016268142</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1083595014.9115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1622386602.710931</v>
+        <v>1607696871.043779</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1182834176877211</v>
+        <v>0.1274722302809315</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05232915100349474</v>
+        <v>0.05328017305643862</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>811193236.8239723</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2809311461.172143</v>
+        <v>2154449676.603743</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1556706799853616</v>
+        <v>0.1085968859050038</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04293036985772382</v>
+        <v>0.0459484397651232</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1404655725.490396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3309476967.35023</v>
+        <v>3499383833.457189</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09236551091228475</v>
+        <v>0.1199910733488104</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03543883421927668</v>
+        <v>0.04138118369825119</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>28</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1654738465.335016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2847925682.587884</v>
+        <v>2434848225.088136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1965249972218105</v>
+        <v>0.1811969180164216</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02377483901926848</v>
+        <v>0.02149514073648072</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>30</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1423962854.87516</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1884625059.75183</v>
+        <v>1665340144.331369</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09696498063687674</v>
+        <v>0.07880672102709793</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02390115350947862</v>
+        <v>0.02984227849522602</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>942312613.1119484</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2145019599.684977</v>
+        <v>2196965335.558672</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1755661829581554</v>
+        <v>0.1390387172257306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05392630174167457</v>
+        <v>0.04652816198914517</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1072509805.229593</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3689080750.2369</v>
+        <v>5125151927.472744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1257612113234786</v>
+        <v>0.1352518085032579</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05596264545423964</v>
+        <v>0.03821921093269046</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1844540326.768456</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4419001002.890146</v>
+        <v>3626737954.515959</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1229732859295216</v>
+        <v>0.1670804309740596</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05190060067689947</v>
+        <v>0.04629358502116448</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2209500524.23147</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3071114143.076223</v>
+        <v>3677644398.490036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06674335748259595</v>
+        <v>0.07989360660240391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02593242772891738</v>
+        <v>0.03055691240916981</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>30</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1535557159.829458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1301519163.586738</v>
+        <v>1770918762.729986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1208622668503329</v>
+        <v>0.1314253948215757</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04238171931947785</v>
+        <v>0.03311245600150822</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>650759644.6079124</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3300788874.072681</v>
+        <v>2988531572.55566</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1628458057783716</v>
+        <v>0.1429230051319022</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0413976914086089</v>
+        <v>0.04795438270247407</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1650394475.381048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1078243942.761133</v>
+        <v>1416811832.718197</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1278227284349536</v>
+        <v>0.1565321961416603</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05357083983392333</v>
+        <v>0.03611295300882796</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>539122042.5918788</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4632414393.737967</v>
+        <v>3440265600.057975</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1329932411216094</v>
+        <v>0.1215915219684988</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05274952756764327</v>
+        <v>0.05033595671249761</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>35</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2316207216.048621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3267474204.072182</v>
+        <v>2646000077.054043</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1523831561800618</v>
+        <v>0.1608212845818201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02948119602257831</v>
+        <v>0.0324177463139319</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>24</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1633737115.935729</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3173188834.137521</v>
+        <v>3678194413.723382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1391871724082804</v>
+        <v>0.1636212471335092</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04533801728676933</v>
+        <v>0.0528971331255678</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1586594416.163438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3763265151.892343</v>
+        <v>4529458760.342233</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2115221905613573</v>
+        <v>0.1827991258521543</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02409389404180499</v>
+        <v>0.02963558111427479</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1881632540.321359</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1262365214.000628</v>
+        <v>1427365422.097702</v>
       </c>
       <c r="F56" t="n">
-        <v>0.129469214935401</v>
+        <v>0.1552627081240723</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05239869273131606</v>
+        <v>0.04141939896604298</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>631182684.3918679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4009733409.748432</v>
+        <v>3899252292.038667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1406831205644997</v>
+        <v>0.1691273783465511</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01723413203401735</v>
+        <v>0.02299460998029745</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2004866793.973617</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1690889970.339276</v>
+        <v>1196183378.374865</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1931931945446508</v>
+        <v>0.1649063206286326</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03624084657668693</v>
+        <v>0.02893984485732749</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>845444998.8023247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3806724317.450608</v>
+        <v>4029373109.426165</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1094043864887456</v>
+        <v>0.09637417668714342</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04070302998347412</v>
+        <v>0.03254810938454304</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1903362143.895195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3014917952.331979</v>
+        <v>3669640576.108884</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1485359800441309</v>
+        <v>0.1250372198531885</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03144134332773647</v>
+        <v>0.02522009968851078</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>26</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1507459047.998698</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3198889777.544706</v>
+        <v>3071466000.016049</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1106400583216882</v>
+        <v>0.1528275282219876</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02552092546206411</v>
+        <v>0.02454943402301097</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1599444850.407942</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1432233419.363171</v>
+        <v>1284248385.20375</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1259692316572101</v>
+        <v>0.1800738515531463</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03553822680076261</v>
+        <v>0.04197158757650295</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>716116682.5037464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4651490289.04748</v>
+        <v>4198655239.150544</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06675765404941589</v>
+        <v>0.07643527694447176</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03179515617256002</v>
+        <v>0.03920840317773732</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2325745177.758696</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3522639711.845658</v>
+        <v>5424042929.201707</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1338786394968518</v>
+        <v>0.153587257299994</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02572842424466631</v>
+        <v>0.02920750616493111</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>26</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1761319858.125324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5450103607.700512</v>
+        <v>3978834907.67538</v>
       </c>
       <c r="F65" t="n">
-        <v>0.112104437157834</v>
+        <v>0.1620723319100568</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02651602868426167</v>
+        <v>0.02047955989032067</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>31</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2725051735.809526</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4541914007.95047</v>
+        <v>3459153254.136526</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1220294933746748</v>
+        <v>0.1183993284395234</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04823221339565809</v>
+        <v>0.0403223456355856</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>25</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2270957006.511044</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2211782752.050511</v>
+        <v>2629151663.976223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08082645401330403</v>
+        <v>0.08268606668711317</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04119752395444812</v>
+        <v>0.05081575450280865</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>27</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1105891460.952413</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3848114045.07664</v>
+        <v>5063674551.718688</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1434146601852092</v>
+        <v>0.128874148961076</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03148087237955201</v>
+        <v>0.0332603782002687</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>27</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1924057009.055439</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1763758533.971052</v>
+        <v>1888406288.979149</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1395543901010334</v>
+        <v>0.1322433364668896</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04679626769970922</v>
+        <v>0.05760979254448215</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>881879241.2901887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2524060572.523458</v>
+        <v>3420370783.916998</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08710189980433729</v>
+        <v>0.07896092604126083</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03310143653202539</v>
+        <v>0.04247764912056341</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1262030232.190997</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3776888249.623309</v>
+        <v>5038109761.580131</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1469229293980117</v>
+        <v>0.1678542640760583</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02652690998859866</v>
+        <v>0.02352644963712432</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1888444139.12962</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1455946347.173265</v>
+        <v>1753588027.637679</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0764811918436633</v>
+        <v>0.09162292860409546</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05177746992597368</v>
+        <v>0.03634540348660634</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>727973207.5976522</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3062586242.58623</v>
+        <v>3057733871.15336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1087098726391572</v>
+        <v>0.09420965926914468</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04856969448953195</v>
+        <v>0.05060004164385552</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>33</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1531293111.470684</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3264188678.859324</v>
+        <v>3104942706.540273</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1765393211420124</v>
+        <v>0.1429301166890952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02139496311308073</v>
+        <v>0.02194709088330597</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1632094381.871864</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1539587326.725367</v>
+        <v>1748859361.073499</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1182244941859056</v>
+        <v>0.1553729384364025</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03161278217516317</v>
+        <v>0.03481516788775962</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>769793670.6889396</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3802003622.719883</v>
+        <v>5136007471.249414</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07641626528325245</v>
+        <v>0.07546957920930379</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02906237805757285</v>
+        <v>0.02300795110385758</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1901001787.689677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1456847000.605725</v>
+        <v>2062201244.422671</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1752002910814232</v>
+        <v>0.1406135940905462</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0314885475118793</v>
+        <v>0.02053599942930582</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>728423481.5036374</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4794904862.376472</v>
+        <v>3619809017.469529</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0871988980655463</v>
+        <v>0.1135888221837438</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05506082333672513</v>
+        <v>0.05477007860765996</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>30</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2397452339.908312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1479321283.142362</v>
+        <v>1761436644.529241</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1452967930604905</v>
+        <v>0.136871339153978</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02786702528089928</v>
+        <v>0.02577615034666021</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>739660672.0918816</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4847735720.578171</v>
+        <v>4402855206.372723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07996069349543894</v>
+        <v>0.107341980984879</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03160240310723291</v>
+        <v>0.03612005462512613</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2423867901.833857</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4728401744.298611</v>
+        <v>5007336291.020566</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08760670518304949</v>
+        <v>0.09482248313545735</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02244896179337582</v>
+        <v>0.02280034192459839</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2364200862.35279</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4215394962.037155</v>
+        <v>3583842027.137706</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1888619455372766</v>
+        <v>0.1742054736449817</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02015963653764929</v>
+        <v>0.02657572821521965</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2107697508.702387</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2424877601.11703</v>
+        <v>1512676603.525209</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1272415047221182</v>
+        <v>0.1463113814966506</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03476684891437042</v>
+        <v>0.04538265595058562</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1212438838.665934</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2555321939.514647</v>
+        <v>1705809574.476406</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200079241314468</v>
+        <v>0.1032687008131868</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0409341870325357</v>
+        <v>0.05148632288666549</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1277660893.375577</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2363156058.674551</v>
+        <v>2454137037.73888</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1114296650545856</v>
+        <v>0.1128377625985647</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04847253435439407</v>
+        <v>0.05190136334995214</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1181578019.090595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2330229000.344035</v>
+        <v>2145041802.199692</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1566265377544743</v>
+        <v>0.1422322763174493</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02035865849151817</v>
+        <v>0.01808659774697799</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1165114573.635111</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>954502620.4197551</v>
+        <v>968135972.2070627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1702034486035092</v>
+        <v>0.1304342319183011</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03086366764292488</v>
+        <v>0.03599483655842135</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>477251302.7646382</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3598411220.828623</v>
+        <v>2462010125.696496</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1587925531295697</v>
+        <v>0.157080716607064</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02922906156159026</v>
+        <v>0.02670204893483464</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>33</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1799205699.895165</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3471246157.135209</v>
+        <v>3224275342.306584</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1504267767539627</v>
+        <v>0.1077896396172726</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03509272003068786</v>
+        <v>0.02860682275978155</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1735623082.039557</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1712479069.585925</v>
+        <v>1707251702.043237</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08659122529692287</v>
+        <v>0.1268648962217299</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05551673628421874</v>
+        <v>0.04063513834051911</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>856239552.3601223</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1464849170.386125</v>
+        <v>1617016316.160743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.147716690757091</v>
+        <v>0.1883894261422618</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04677843845660698</v>
+        <v>0.04916947325452823</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>732424628.6981777</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2530718084.624251</v>
+        <v>2334569554.290124</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08600345195804023</v>
+        <v>0.09860771132382845</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0472163182989286</v>
+        <v>0.04400357417591759</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1265359028.498887</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3118946681.119093</v>
+        <v>3374252456.522777</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1179776625848813</v>
+        <v>0.1321054010211123</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04296061303364693</v>
+        <v>0.04090386260835636</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1559473398.070291</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2202941511.070379</v>
+        <v>1610856980.386629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1165943556683384</v>
+        <v>0.1643815422832563</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03833481014102914</v>
+        <v>0.02941721993069674</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1101470780.270549</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2698054005.048192</v>
+        <v>2491755039.380945</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1112895672172843</v>
+        <v>0.0901612462796554</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04328583427967121</v>
+        <v>0.04796125824597731</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1349027024.122496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1554968198.681809</v>
+        <v>2119243026.794472</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1089227708505101</v>
+        <v>0.10986986371255</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04716899896638661</v>
+        <v>0.03297994103671559</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>777484133.7578961</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3286448730.552901</v>
+        <v>4483047537.692221</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1728051599967125</v>
+        <v>0.1535727704563289</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02379759552313204</v>
+        <v>0.02293368530900439</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>27</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1643224364.193429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3737937451.138425</v>
+        <v>3110247127.707778</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148093816897277</v>
+        <v>0.1068581936287728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02486321621952278</v>
+        <v>0.02099924690691643</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>22</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1868968760.215796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3006897549.418808</v>
+        <v>3013573543.083996</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1161761543324025</v>
+        <v>0.08960420635797577</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03221255294331318</v>
+        <v>0.02159681223997759</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1503448761.116426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3676150579.11575</v>
+        <v>3175044303.737968</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1389318458792037</v>
+        <v>0.1191596141279566</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02721702723404358</v>
+        <v>0.02701119697403409</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>26</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1838075334.28477</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2255796797.335639</v>
+        <v>3325446569.504316</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1438178572067668</v>
+        <v>0.1419694821268623</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0416874329426871</v>
+        <v>0.03878193415345755</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>36</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1127898389.314654</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_85.xlsx
+++ b/output/fit_clients/fit_round_85.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1994595087.369576</v>
+        <v>2028368969.156792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1005705302250815</v>
+        <v>0.08443894479683724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03061584516392648</v>
+        <v>0.03108205390190603</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1861603957.554228</v>
+        <v>2016977120.123846</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1590794899661821</v>
+        <v>0.1344368272394069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04595445877206941</v>
+        <v>0.0336800005133339</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5018930706.109368</v>
+        <v>4028266859.163701</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642926658159521</v>
+        <v>0.1151641190134593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03613886747141102</v>
+        <v>0.03707311546184593</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3442865937.464991</v>
+        <v>3590452311.663383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106133635858468</v>
+        <v>0.08975701439447638</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0432535650007428</v>
+        <v>0.04318542721604739</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1829604234.686234</v>
+        <v>1813319663.511448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175470793739641</v>
+        <v>0.1350938680862896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05423355975023137</v>
+        <v>0.04665632469215763</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2547470964.971265</v>
+        <v>3010759329.431479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07763077921009774</v>
+        <v>0.08536807488132059</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03729789585927305</v>
+        <v>0.04635626233154766</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3365305566.665418</v>
+        <v>2484741646.693914</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1402635219426711</v>
+        <v>0.1956927440231432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02741437915827908</v>
+        <v>0.02935023994637808</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1435494636.812651</v>
+        <v>1465722849.668768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1578209795737207</v>
+        <v>0.1902511621902806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03655970052969563</v>
+        <v>0.02869217514686722</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5572067350.212342</v>
+        <v>4973200571.046835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1419236916493254</v>
+        <v>0.1439531045257298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05180408953505698</v>
+        <v>0.03300121295466766</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3178790118.880902</v>
+        <v>4241720422.209969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1491803914316915</v>
+        <v>0.1602603640202634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0445944345430567</v>
+        <v>0.03787740735968213</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3150015096.849944</v>
+        <v>3275734192.476807</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172040161698548</v>
+        <v>0.125943220171513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03283235525362831</v>
+        <v>0.05220688113933231</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3368672628.960961</v>
+        <v>3790900864.050169</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0702240847942134</v>
+        <v>0.0923285161934798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0286687696100346</v>
+        <v>0.02616750393449415</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2647237013.332563</v>
+        <v>2894310311.462285</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291512332133536</v>
+        <v>0.160059909069877</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02805365760277233</v>
+        <v>0.03988843064709091</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1287450844.514554</v>
+        <v>1330882570.518185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0984438123984509</v>
+        <v>0.07743281149294308</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04951137551733815</v>
+        <v>0.04854168959174819</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1776816613.75141</v>
+        <v>2557376092.337774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09836174039016524</v>
+        <v>0.1101071380720424</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0433277826661217</v>
+        <v>0.03861487157042841</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3404360857.351561</v>
+        <v>3998245444.445824</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1410155720882612</v>
+        <v>0.1661159358863349</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05106196993679851</v>
+        <v>0.0417847296747708</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3867052974.40578</v>
+        <v>3792409210.951355</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1257221711015214</v>
+        <v>0.1411046427276526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02408600480755933</v>
+        <v>0.03098200425209325</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1037429782.080364</v>
+        <v>1155516669.433523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1338819581973973</v>
+        <v>0.1161147131645551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02633189369469645</v>
+        <v>0.02257706840646978</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2089887007.051546</v>
+        <v>2491187567.751409</v>
       </c>
       <c r="F20" t="n">
-        <v>0.115376112729305</v>
+        <v>0.1104275396670983</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02853443163731073</v>
+        <v>0.02292968276444047</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2651471796.519053</v>
+        <v>1991405507.464986</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09232269291741946</v>
+        <v>0.09824926294328186</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03591984711455985</v>
+        <v>0.03307066617561163</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2886835709.358833</v>
+        <v>3923581110.388563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1217196799291378</v>
+        <v>0.08799593988418249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04870527912968205</v>
+        <v>0.03642108490882939</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1401191400.275724</v>
+        <v>1163147677.10098</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1414342780165155</v>
+        <v>0.1386520063305938</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0403838248615879</v>
+        <v>0.03982515557188584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3429839688.266782</v>
+        <v>4147667552.509828</v>
       </c>
       <c r="F24" t="n">
-        <v>0.117746127418736</v>
+        <v>0.09874589659296119</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02491514079307618</v>
+        <v>0.03388099081541458</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1255192274.693576</v>
+        <v>1450872198.013866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08770264477676144</v>
+        <v>0.1011120806458056</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0217498045461373</v>
+        <v>0.02291547073366832</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1128488124.463007</v>
+        <v>1384860258.579612</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152859954799694</v>
+        <v>0.07676462837180477</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02542028516643594</v>
+        <v>0.03399319511005643</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3622648198.550056</v>
+        <v>3423352283.320695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1322907281352702</v>
+        <v>0.1061199741469569</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01851239412129074</v>
+        <v>0.01699572598131266</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3389913312.635952</v>
+        <v>3598397960.893378</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1267114075886274</v>
+        <v>0.1505646725494842</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04063717286263754</v>
+        <v>0.05029016536874686</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4687586980.725986</v>
+        <v>5571586105.028142</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1314055550757612</v>
+        <v>0.1215633067042322</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03083064927710806</v>
+        <v>0.03664145441638601</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2143586674.647355</v>
+        <v>2151776247.153768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1102336256074453</v>
+        <v>0.105200031544701</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02904427697130244</v>
+        <v>0.02470031730975304</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265499621.494772</v>
+        <v>1313952977.501607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09541222357968658</v>
+        <v>0.0716557427791443</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04799178203120964</v>
+        <v>0.04724100639646165</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1794123587.298661</v>
+        <v>1391224970.483574</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1088718224981181</v>
+        <v>0.109771859415576</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02624752862562856</v>
+        <v>0.03038386065357966</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2525146968.98961</v>
+        <v>1996312038.924585</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1518625164968447</v>
+        <v>0.198025219502113</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03938041778847905</v>
+        <v>0.04664503103735455</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256377837.63117</v>
+        <v>1397460749.330374</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07873455904708214</v>
+        <v>0.07996173605439653</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01795103082281465</v>
+        <v>0.01916652938493281</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1364127052.315641</v>
+        <v>985481663.920105</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07237375170561193</v>
+        <v>0.1083078485587005</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04336359694150357</v>
+        <v>0.03967550844928668</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2981063230.93627</v>
+        <v>2013667481.063407</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1474370775988859</v>
+        <v>0.1372701876017064</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02839735012958314</v>
+        <v>0.02636740610852688</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2904119884.104379</v>
+        <v>2923968700.79389</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07506047906141133</v>
+        <v>0.1121174551265457</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03396019059319162</v>
+        <v>0.02937103956651391</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1416232744.583676</v>
+        <v>1439119337.169365</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1204128083026426</v>
+        <v>0.08330690868845667</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03175764890447388</v>
+        <v>0.03251779042743717</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1533262763.664158</v>
+        <v>1561838561.791668</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1839656573107202</v>
+        <v>0.1608252088938594</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02677767016268142</v>
+        <v>0.03203419527212861</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1607696871.043779</v>
+        <v>1801377276.991069</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1274722302809315</v>
+        <v>0.1040046376041606</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05328017305643862</v>
+        <v>0.04754335654042827</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2154449676.603743</v>
+        <v>2499193025.122654</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1085968859050038</v>
+        <v>0.1015324722944938</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0459484397651232</v>
+        <v>0.04500579749259938</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3499383833.457189</v>
+        <v>4046135178.120707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199910733488104</v>
+        <v>0.1131031416810398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04138118369825119</v>
+        <v>0.03115397872496448</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2434848225.088136</v>
+        <v>2196814622.777629</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1811969180164216</v>
+        <v>0.1615132219350122</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02149514073648072</v>
+        <v>0.01687416418273694</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1665340144.331369</v>
+        <v>1658504136.308441</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07880672102709793</v>
+        <v>0.08087040195819929</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02984227849522602</v>
+        <v>0.02673168020646958</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2196965335.558672</v>
+        <v>2451004504.391249</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1390387172257306</v>
+        <v>0.152839907821307</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04652816198914517</v>
+        <v>0.03877839963961949</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5125151927.472744</v>
+        <v>5732430054.426462</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352518085032579</v>
+        <v>0.1167124254380435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03821921093269046</v>
+        <v>0.05052934404650417</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3626737954.515959</v>
+        <v>3782683078.152945</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1670804309740596</v>
+        <v>0.1482874687389222</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04629358502116448</v>
+        <v>0.05810930054284113</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3677644398.490036</v>
+        <v>3665897691.935009</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07989360660240391</v>
+        <v>0.1024182458854163</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03055691240916981</v>
+        <v>0.03020023978485847</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1770918762.729986</v>
+        <v>1839847944.408949</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1314253948215757</v>
+        <v>0.1967115759161032</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03311245600150822</v>
+        <v>0.03783831508101038</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2988531572.55566</v>
+        <v>3105905715.870999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1429230051319022</v>
+        <v>0.1288443145094369</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04795438270247407</v>
+        <v>0.03748238171276527</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1416811832.718197</v>
+        <v>1517558913.076082</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1565321961416603</v>
+        <v>0.1484967125784326</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03611295300882796</v>
+        <v>0.03729681681666439</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3440265600.057975</v>
+        <v>4528376869.727006</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1215915219684988</v>
+        <v>0.1269378773727569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05033595671249761</v>
+        <v>0.04745176346787132</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2646000077.054043</v>
+        <v>3412580999.830155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1608212845818201</v>
+        <v>0.1902290501544253</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0324177463139319</v>
+        <v>0.02298198249847498</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3678194413.723382</v>
+        <v>3680592391.475198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1636212471335092</v>
+        <v>0.1038419434853858</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0528971331255678</v>
+        <v>0.04024749545600015</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4529458760.342233</v>
+        <v>3341957394.616234</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1827991258521543</v>
+        <v>0.1538956403583934</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02963558111427479</v>
+        <v>0.02671757668469212</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1427365422.097702</v>
+        <v>1140674613.070049</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1552627081240723</v>
+        <v>0.1556266262336168</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04141939896604298</v>
+        <v>0.05648908720445635</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3899252292.038667</v>
+        <v>4375996859.859556</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1691273783465511</v>
+        <v>0.1694384965285307</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02299460998029745</v>
+        <v>0.02306764908000685</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1196183378.374865</v>
+        <v>1573776461.8016</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1649063206286326</v>
+        <v>0.1410652287386637</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02893984485732749</v>
+        <v>0.0343309714050774</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4029373109.426165</v>
+        <v>4486021487.835207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09637417668714342</v>
+        <v>0.1278376051565877</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03254810938454304</v>
+        <v>0.0480420213337771</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3669640576.108884</v>
+        <v>2841075481.688471</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1250372198531885</v>
+        <v>0.1891185856436018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02522009968851078</v>
+        <v>0.0233940588720496</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3071466000.016049</v>
+        <v>2261909794.891729</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1528275282219876</v>
+        <v>0.1305862741795366</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02454943402301097</v>
+        <v>0.02081448111822997</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1284248385.20375</v>
+        <v>1515331463.171258</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1800738515531463</v>
+        <v>0.1576820716932865</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04197158757650295</v>
+        <v>0.03046464371610927</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4198655239.150544</v>
+        <v>4296264709.84851</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07643527694447176</v>
+        <v>0.07817633237293452</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03920840317773732</v>
+        <v>0.04285223827972851</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5424042929.201707</v>
+        <v>3696442733.962059</v>
       </c>
       <c r="F64" t="n">
-        <v>0.153587257299994</v>
+        <v>0.1338610933081616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02920750616493111</v>
+        <v>0.02382183056557304</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3978834907.67538</v>
+        <v>4016887230.953831</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1620723319100568</v>
+        <v>0.1658728173044363</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02047955989032067</v>
+        <v>0.03069604473532366</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3459153254.136526</v>
+        <v>4724858152.898671</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1183993284395234</v>
+        <v>0.1363556093055156</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0403223456355856</v>
+        <v>0.04391327439509921</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2629151663.976223</v>
+        <v>2133162130.132756</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08268606668711317</v>
+        <v>0.09196032632678917</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05081575450280865</v>
+        <v>0.03636335163641617</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5063674551.718688</v>
+        <v>5733137880.274842</v>
       </c>
       <c r="F68" t="n">
-        <v>0.128874148961076</v>
+        <v>0.1072834970967729</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0332603782002687</v>
+        <v>0.03840605839869202</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1888406288.979149</v>
+        <v>1545176367.81119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1322433364668896</v>
+        <v>0.1669657616394611</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05760979254448215</v>
+        <v>0.05202585743813056</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3420370783.916998</v>
+        <v>3372906763.391748</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07896092604126083</v>
+        <v>0.06560079142156161</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04247764912056341</v>
+        <v>0.03392484692702752</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5038109761.580131</v>
+        <v>5657173604.337968</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1678542640760583</v>
+        <v>0.1341414987186362</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02352644963712432</v>
+        <v>0.02074411829131161</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1753588027.637679</v>
+        <v>1684507170.507204</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09162292860409546</v>
+        <v>0.07171501412519936</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03634540348660634</v>
+        <v>0.03961241696226059</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3057733871.15336</v>
+        <v>3130610472.861052</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09420965926914468</v>
+        <v>0.08730282414412355</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05060004164385552</v>
+        <v>0.05267006630668217</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3104942706.540273</v>
+        <v>3601687243.567061</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1429301166890952</v>
+        <v>0.1474068496903207</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02194709088330597</v>
+        <v>0.02267571454030917</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1748859361.073499</v>
+        <v>1709342487.256713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553729384364025</v>
+        <v>0.1648683265192093</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03481516788775962</v>
+        <v>0.0231342395864153</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136007471.249414</v>
+        <v>4420588041.379341</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07546957920930379</v>
+        <v>0.1045948074309222</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02300795110385758</v>
+        <v>0.02827877957576263</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2062201244.422671</v>
+        <v>1745688137.074533</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406135940905462</v>
+        <v>0.1374031765507384</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02053599942930582</v>
+        <v>0.02702671186288075</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3619809017.469529</v>
+        <v>4630227053.167768</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1135888221837438</v>
+        <v>0.1006060832336747</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05477007860765996</v>
+        <v>0.05222094788905323</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1761436644.529241</v>
+        <v>1711627924.209519</v>
       </c>
       <c r="F79" t="n">
-        <v>0.136871339153978</v>
+        <v>0.1309141757174608</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02577615034666021</v>
+        <v>0.03494353582232333</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4402855206.372723</v>
+        <v>4126831295.500209</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107341980984879</v>
+        <v>0.1112406868364763</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03612005462512613</v>
+        <v>0.02784119195176309</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5007336291.020566</v>
+        <v>3210667730.515862</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09482248313545735</v>
+        <v>0.116394306537032</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02280034192459839</v>
+        <v>0.02063607774409552</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3583842027.137706</v>
+        <v>3768945941.469846</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1742054736449817</v>
+        <v>0.1618850836274435</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02657572821521965</v>
+        <v>0.02071285089016341</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1512676603.525209</v>
+        <v>1721465540.183492</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1463113814966506</v>
+        <v>0.1341941305945542</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04538265595058562</v>
+        <v>0.02956068175016919</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1705809574.476406</v>
+        <v>2316350315.856018</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1032687008131868</v>
+        <v>0.1059388919736364</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05148632288666549</v>
+        <v>0.04541896542320587</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2454137037.73888</v>
+        <v>3287050764.289334</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1128377625985647</v>
+        <v>0.1756866204986707</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05190136334995214</v>
+        <v>0.04034699910908091</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2145041802.199692</v>
+        <v>2330570222.930703</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1422322763174493</v>
+        <v>0.1195526753783718</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01808659774697799</v>
+        <v>0.01994358069040227</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>968135972.2070627</v>
+        <v>1086261064.524625</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1304342319183011</v>
+        <v>0.1306787517023375</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03599483655842135</v>
+        <v>0.03301061374408662</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2462010125.696496</v>
+        <v>2612767332.174848</v>
       </c>
       <c r="F88" t="n">
-        <v>0.157080716607064</v>
+        <v>0.176596643871597</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02670204893483464</v>
+        <v>0.02564174990841084</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3224275342.306584</v>
+        <v>3198009584.754654</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1077896396172726</v>
+        <v>0.1155299895902497</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02860682275978155</v>
+        <v>0.0252663965282191</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1707251702.043237</v>
+        <v>1737835049.672825</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1268648962217299</v>
+        <v>0.09091546687318373</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04063513834051911</v>
+        <v>0.0518252218947037</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1617016316.160743</v>
+        <v>1563925388.480882</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1883894261422618</v>
+        <v>0.1875976071180103</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04916947325452823</v>
+        <v>0.03791480947172021</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2334569554.290124</v>
+        <v>2754013874.787597</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09860771132382845</v>
+        <v>0.09354937566099773</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04400357417591759</v>
+        <v>0.03403040151204811</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3374252456.522777</v>
+        <v>3353961514.634367</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1321054010211123</v>
+        <v>0.09745001563587399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04090386260835636</v>
+        <v>0.05236949179898506</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1610856980.386629</v>
+        <v>2030159501.617731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1643815422832563</v>
+        <v>0.1625410276669166</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02941721993069674</v>
+        <v>0.04334316406079115</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2491755039.380945</v>
+        <v>2599562026.36807</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0901612462796554</v>
+        <v>0.1338574828422196</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04796125824597731</v>
+        <v>0.04186254209595366</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2119243026.794472</v>
+        <v>2345262826.773807</v>
       </c>
       <c r="F96" t="n">
-        <v>0.10986986371255</v>
+        <v>0.09220813682888711</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03297994103671559</v>
+        <v>0.0402538594113554</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4483047537.692221</v>
+        <v>3847035553.221999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1535727704563289</v>
+        <v>0.1253609369930701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02293368530900439</v>
+        <v>0.02642044102789729</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3110247127.707778</v>
+        <v>3773463858.395719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1068581936287728</v>
+        <v>0.1259089866779802</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02099924690691643</v>
+        <v>0.03193456028094691</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3013573543.083996</v>
+        <v>2342562301.415586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08960420635797577</v>
+        <v>0.1472409137046383</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02159681223997759</v>
+        <v>0.02445770361853897</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3175044303.737968</v>
+        <v>3437267494.91748</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1191596141279566</v>
+        <v>0.1204811973774575</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02701119697403409</v>
+        <v>0.02330692129083544</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3325446569.504316</v>
+        <v>2547979058.573075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1419694821268623</v>
+        <v>0.2142487578387338</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03878193415345755</v>
+        <v>0.04077294480360601</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_85.xlsx
+++ b/output/fit_clients/fit_round_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2028368969.156792</v>
+        <v>2099845938.147302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08443894479683724</v>
+        <v>0.07854484909224352</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03108205390190603</v>
+        <v>0.03492931947632986</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2016977120.123846</v>
+        <v>1859622360.191986</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1344368272394069</v>
+        <v>0.1779356226076872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0336800005133339</v>
+        <v>0.03692171976121965</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4028266859.163701</v>
+        <v>4322363144.5859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1151641190134593</v>
+        <v>0.1120201624325207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03707311546184593</v>
+        <v>0.0273023574184366</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85</v>
+      </c>
+      <c r="K4" t="n">
+        <v>177.1274169551187</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3590452311.663383</v>
+        <v>3467593973.981561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08975701439447638</v>
+        <v>0.105445129660574</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04318542721604739</v>
+        <v>0.03577756379522545</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1813319663.511448</v>
+        <v>2071415010.009316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1350938680862896</v>
+        <v>0.1370677836868888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04665632469215763</v>
+        <v>0.04810604002911572</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3010759329.431479</v>
+        <v>1908772815.147336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08536807488132059</v>
+        <v>0.09814421926628092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04635626233154766</v>
+        <v>0.0409238308940396</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2484741646.693914</v>
+        <v>3826957279.399563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1956927440231432</v>
+        <v>0.1811005478540896</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02935023994637808</v>
+        <v>0.02023463563963232</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1465722849.668768</v>
+        <v>1983464016.948078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1902511621902806</v>
+        <v>0.197685255588153</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02869217514686722</v>
+        <v>0.02892557695511932</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4973200571.046835</v>
+        <v>4675305286.999649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1439531045257298</v>
+        <v>0.1388374286413147</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03300121295466766</v>
+        <v>0.04791673411195627</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>79</v>
+      </c>
+      <c r="J10" t="n">
+        <v>85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>195.9327834403576</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4241720422.209969</v>
+        <v>3486862797.397184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602603640202634</v>
+        <v>0.1340837921200101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03787740735968213</v>
+        <v>0.04603533667299748</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>154.7109670897509</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3275734192.476807</v>
+        <v>2753299433.583896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.125943220171513</v>
+        <v>0.1299023531791952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05220688113933231</v>
+        <v>0.04375793979771497</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3790900864.050169</v>
+        <v>4855006991.656175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0923285161934798</v>
+        <v>0.0704179651463427</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02616750393449415</v>
+        <v>0.02973199423384424</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>84</v>
+      </c>
+      <c r="K13" t="n">
+        <v>171.872124893719</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2894310311.462285</v>
+        <v>3369699137.992265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.160059909069877</v>
+        <v>0.1669957476627456</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03988843064709091</v>
+        <v>0.03910315798403618</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1330882570.518185</v>
+        <v>1278991255.967405</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07743281149294308</v>
+        <v>0.1048269299740919</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04854168959174819</v>
+        <v>0.04268885290365348</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2557376092.337774</v>
+        <v>2457819069.145798</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1101071380720424</v>
+        <v>0.08024802942002117</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03861487157042841</v>
+        <v>0.04826041424532544</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3998245444.445824</v>
+        <v>3761844025.941085</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1661159358863349</v>
+        <v>0.1202601085354028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0417847296747708</v>
+        <v>0.04296061508397504</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <v>144.9761340037612</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3792409210.951355</v>
+        <v>2736576592.173619</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1411046427276526</v>
+        <v>0.1321188248068756</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03098200425209325</v>
+        <v>0.03190396940532367</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>84</v>
+      </c>
+      <c r="K18" t="n">
+        <v>83.19864007126921</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1155516669.433523</v>
+        <v>943097312.402694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1161147131645551</v>
+        <v>0.1716137074764157</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02257706840646978</v>
+        <v>0.02094245748670118</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2491187567.751409</v>
+        <v>1714047470.554195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1104275396670983</v>
+        <v>0.1611879940312378</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02292968276444047</v>
+        <v>0.02462349323523534</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1991405507.464986</v>
+        <v>2261576271.067036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09824926294328186</v>
+        <v>0.06494025970129803</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03307066617561163</v>
+        <v>0.03198661436510487</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3923581110.388563</v>
+        <v>2962210307.633056</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08799593988418249</v>
+        <v>0.09208764461588943</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03642108490882939</v>
+        <v>0.04359165061815259</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84</v>
+      </c>
+      <c r="K22" t="n">
+        <v>91.63856913869742</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1163147677.10098</v>
+        <v>1205688482.752321</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1386520063305938</v>
+        <v>0.1426448132727754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03982515557188584</v>
+        <v>0.05069632908000445</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4147667552.509828</v>
+        <v>2578670046.010741</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09874589659296119</v>
+        <v>0.1117711573718834</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03388099081541458</v>
+        <v>0.03762217970745759</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1450872198.013866</v>
+        <v>1240643280.033061</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1011120806458056</v>
+        <v>0.08198556667847566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02291547073366832</v>
+        <v>0.03090347192130907</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1384860258.579612</v>
+        <v>1025157165.60124</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07676462837180477</v>
+        <v>0.1216431147214382</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03399319511005643</v>
+        <v>0.02638793742416536</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3423352283.320695</v>
+        <v>2906109955.139009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1061199741469569</v>
+        <v>0.1308275281090441</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01699572598131266</v>
+        <v>0.02272917459015097</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>84</v>
+      </c>
+      <c r="K27" t="n">
+        <v>81.28438813184307</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1421,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3598397960.893378</v>
+        <v>3255366813.026341</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1505646725494842</v>
+        <v>0.110536607706552</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05029016536874686</v>
+        <v>0.04179061146192742</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="n">
+        <v>125.3943662883309</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1458,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5571586105.028142</v>
+        <v>4289131981.577954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1215633067042322</v>
+        <v>0.1277348488887284</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03664145441638601</v>
+        <v>0.04133552004972098</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>79</v>
+      </c>
+      <c r="J29" t="n">
+        <v>85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>205.604220584583</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1501,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2151776247.153768</v>
+        <v>1924840772.707146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.105200031544701</v>
+        <v>0.125143650991028</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02470031730975304</v>
+        <v>0.03935157009643332</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1530,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1313952977.501607</v>
+        <v>1346316052.830594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0716557427791443</v>
+        <v>0.07226536243162851</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04724100639646165</v>
+        <v>0.04167725328422309</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1565,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1391224970.483574</v>
+        <v>1837893044.528481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.109771859415576</v>
+        <v>0.1052072414873071</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03038386065357966</v>
+        <v>0.0304966060072995</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1606,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1996312038.924585</v>
+        <v>2852443588.512791</v>
       </c>
       <c r="F33" t="n">
-        <v>0.198025219502113</v>
+        <v>0.1665356371496839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04664503103735455</v>
+        <v>0.03717931932353288</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1635,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1397460749.330374</v>
+        <v>1555100182.58696</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07996173605439653</v>
+        <v>0.0811994407913422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01916652938493281</v>
+        <v>0.01912338709976254</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1670,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>985481663.920105</v>
+        <v>917894467.4139318</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083078485587005</v>
+        <v>0.07966260929045708</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03967550844928668</v>
+        <v>0.04021090389509005</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1705,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2013667481.063407</v>
+        <v>3108356643.285868</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1372701876017064</v>
+        <v>0.126106393648237</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02636740610852688</v>
+        <v>0.01878344302243674</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1746,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2923968700.79389</v>
+        <v>2555124783.500312</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1121174551265457</v>
+        <v>0.0969796983094061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02937103956651391</v>
+        <v>0.03061124560562029</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1775,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1439119337.169365</v>
+        <v>2198800500.394288</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08330690868845667</v>
+        <v>0.1121712916524386</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03251779042743717</v>
+        <v>0.02479337893436878</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1816,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1561838561.791668</v>
+        <v>1957599785.613351</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1608252088938594</v>
+        <v>0.1511611344282713</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03203419527212861</v>
+        <v>0.02956499615125744</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1845,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1801377276.991069</v>
+        <v>1590286669.311613</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1040046376041606</v>
+        <v>0.1053907730449552</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04754335654042827</v>
+        <v>0.05867655426949065</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1880,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2499193025.122654</v>
+        <v>1895592324.031335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1015324722944938</v>
+        <v>0.1152955842768651</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04500579749259938</v>
+        <v>0.04660503022816014</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1915,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4046135178.120707</v>
+        <v>2704884023.874786</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1131031416810398</v>
+        <v>0.1067935144367388</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03115397872496448</v>
+        <v>0.03310360840399596</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84</v>
+      </c>
+      <c r="K42" t="n">
+        <v>83.97603093358812</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1952,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2196814622.777629</v>
+        <v>2772548040.310651</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1615132219350122</v>
+        <v>0.1414332563024544</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01687416418273694</v>
+        <v>0.02152724827128086</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1993,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1658504136.308441</v>
+        <v>1802218528.722856</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08087040195819929</v>
+        <v>0.08196393147250969</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02673168020646958</v>
+        <v>0.02238240745748061</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2022,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2451004504.391249</v>
+        <v>2095104081.622409</v>
       </c>
       <c r="F45" t="n">
-        <v>0.152839907821307</v>
+        <v>0.1243150841393587</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03877839963961949</v>
+        <v>0.04464275826345087</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2057,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5732430054.426462</v>
+        <v>4146815397.72312</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1167124254380435</v>
+        <v>0.1276635160368056</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05052934404650417</v>
+        <v>0.04044693178501618</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>49</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84</v>
+      </c>
+      <c r="K46" t="n">
+        <v>174.534279733599</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2094,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3782683078.152945</v>
+        <v>4929838270.382707</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1482874687389222</v>
+        <v>0.1883289340810848</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05810930054284113</v>
+        <v>0.0444733847008268</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>85</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2129,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3665897691.935009</v>
+        <v>3580650047.875897</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1024182458854163</v>
+        <v>0.07787856872489213</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03020023978485847</v>
+        <v>0.03057641774851961</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" t="n">
+        <v>85</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2170,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1839847944.408949</v>
+        <v>1700636969.020041</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1967115759161032</v>
+        <v>0.158194514174054</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03783831508101038</v>
+        <v>0.0385176818046763</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2199,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3105905715.870999</v>
+        <v>3096872063.152658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1288443145094369</v>
+        <v>0.1258385077618318</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03748238171276527</v>
+        <v>0.0338310657861258</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1517558913.076082</v>
+        <v>959939991.0784814</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1484967125784326</v>
+        <v>0.1766191614256784</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03729681681666439</v>
+        <v>0.03937039797340322</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2269,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4528376869.727006</v>
+        <v>3749629400.795296</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1269378773727569</v>
+        <v>0.08877460364851862</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04745176346787132</v>
+        <v>0.04964944621788927</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>65</v>
+      </c>
+      <c r="J52" t="n">
+        <v>85</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3412580999.830155</v>
+        <v>3505743034.776007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1902290501544253</v>
+        <v>0.1816178614913797</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02298198249847498</v>
+        <v>0.02814667271611855</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3680592391.475198</v>
+        <v>3759323298.535233</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1038419434853858</v>
+        <v>0.1168998689600382</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04024749545600015</v>
+        <v>0.04914843441949168</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>38</v>
+      </c>
+      <c r="J54" t="n">
+        <v>85</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3341957394.616234</v>
+        <v>4475164525.040723</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1538956403583934</v>
+        <v>0.1800299286303628</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02671757668469212</v>
+        <v>0.02276519885537833</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>38</v>
+      </c>
+      <c r="J55" t="n">
+        <v>85</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1140674613.070049</v>
+        <v>1291652456.27747</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1556266262336168</v>
+        <v>0.1329875778466797</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05648908720445635</v>
+        <v>0.05222326775240229</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4375996859.859556</v>
+        <v>4124957581.043345</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1694384965285307</v>
+        <v>0.1757180440453122</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02306764908000685</v>
+        <v>0.01961371614430455</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>85</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1573776461.8016</v>
+        <v>1482465056.42736</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1410652287386637</v>
+        <v>0.1463989270670581</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0343309714050774</v>
+        <v>0.02974190037662732</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4486021487.835207</v>
+        <v>4433157167.062333</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1278376051565877</v>
+        <v>0.1121687140883199</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0480420213337771</v>
+        <v>0.04711112485701197</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>41</v>
+      </c>
+      <c r="J59" t="n">
+        <v>85</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2841075481.688471</v>
+        <v>3340684316.341051</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1891185856436018</v>
+        <v>0.1797253971377606</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0233940588720496</v>
+        <v>0.02095343956122175</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>83</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2261909794.891729</v>
+        <v>2410497766.187703</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1305862741795366</v>
+        <v>0.1753609233540182</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02081448111822997</v>
+        <v>0.02974726813176551</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1515331463.171258</v>
+        <v>1398095653.603486</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576820716932865</v>
+        <v>0.1461211011065414</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03046464371610927</v>
+        <v>0.03192098264379024</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4296264709.84851</v>
+        <v>5258143646.34059</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07817633237293452</v>
+        <v>0.07202311985053811</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04285223827972851</v>
+        <v>0.03626841007029123</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>42</v>
+      </c>
+      <c r="J63" t="n">
+        <v>84</v>
+      </c>
+      <c r="K63" t="n">
+        <v>162.4911782832258</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3696442733.962059</v>
+        <v>4450665212.193233</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1338610933081616</v>
+        <v>0.1845421092086493</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02382183056557304</v>
+        <v>0.02920879572804406</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>42</v>
+      </c>
+      <c r="J64" t="n">
+        <v>84</v>
+      </c>
+      <c r="K64" t="n">
+        <v>167.1838478559835</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4016887230.953831</v>
+        <v>5804471955.93408</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1658728173044363</v>
+        <v>0.1131419376287096</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03069604473532366</v>
+        <v>0.02906708120853236</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>68</v>
+      </c>
+      <c r="J65" t="n">
+        <v>85</v>
+      </c>
+      <c r="K65" t="n">
+        <v>178.909856759801</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4724858152.898671</v>
+        <v>4027406586.757979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1363556093055156</v>
+        <v>0.09995154727363678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04391327439509921</v>
+        <v>0.04933824954420534</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>42</v>
+      </c>
+      <c r="J66" t="n">
+        <v>84</v>
+      </c>
+      <c r="K66" t="n">
+        <v>168.1420033845741</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2133162130.132756</v>
+        <v>2963725623.335746</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09196032632678917</v>
+        <v>0.08746928218826298</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03636335163641617</v>
+        <v>0.03735968326858243</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5733137880.274842</v>
+        <v>4526886560.427841</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1072834970967729</v>
+        <v>0.1280705383436303</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03840605839869202</v>
+        <v>0.04649275090755326</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>42</v>
+      </c>
+      <c r="J68" t="n">
+        <v>85</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1545176367.81119</v>
+        <v>1808493230.746252</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1669657616394611</v>
+        <v>0.1293798802392822</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05202585743813056</v>
+        <v>0.04349525951765365</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3372906763.391748</v>
+        <v>3493070865.125576</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06560079142156161</v>
+        <v>0.07034860135518907</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03392484692702752</v>
+        <v>0.03934883222643789</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5657173604.337968</v>
+        <v>3564345758.449627</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1341414987186362</v>
+        <v>0.1461464250671574</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02074411829131161</v>
+        <v>0.02833075193773501</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>71</v>
+      </c>
+      <c r="J71" t="n">
+        <v>84</v>
+      </c>
+      <c r="K71" t="n">
+        <v>151.3325211597464</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1684507170.507204</v>
+        <v>1485902937.917605</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07171501412519936</v>
+        <v>0.1009836531431193</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03961241696226059</v>
+        <v>0.03605002933751059</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3130610472.861052</v>
+        <v>2795081582.490951</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08730282414412355</v>
+        <v>0.09367493838955486</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05267006630668217</v>
+        <v>0.0523192118092005</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3601687243.567061</v>
+        <v>3900326041.622756</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1474068496903207</v>
+        <v>0.141647719847316</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02267571454030917</v>
+        <v>0.02425787865972302</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26</v>
+      </c>
+      <c r="J74" t="n">
+        <v>84</v>
+      </c>
+      <c r="K74" t="n">
+        <v>175.9377790270738</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1709342487.256713</v>
+        <v>2184279134.123646</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1648683265192093</v>
+        <v>0.1385664777489492</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0231342395864153</v>
+        <v>0.02523921443173241</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3121,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4420588041.379341</v>
+        <v>3370075939.120052</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1045948074309222</v>
+        <v>0.1059417326321819</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02827877957576263</v>
+        <v>0.02277973553436631</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>39</v>
+      </c>
+      <c r="J76" t="n">
+        <v>84</v>
+      </c>
+      <c r="K76" t="n">
+        <v>107.0368520921732</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1745688137.074533</v>
+        <v>2183461858.768618</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1374031765507384</v>
+        <v>0.1137018276296417</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02702671186288075</v>
+        <v>0.02044054483207963</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3193,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4630227053.167768</v>
+        <v>3255261153.896918</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1006060832336747</v>
+        <v>0.1065050187135921</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05222094788905323</v>
+        <v>0.04116498154040193</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>40</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1711627924.209519</v>
+        <v>1747616383.817974</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1309141757174608</v>
+        <v>0.1727890279696319</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03494353582232333</v>
+        <v>0.03922652613576966</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4126831295.500209</v>
+        <v>5629449179.935137</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1112406868364763</v>
+        <v>0.0938791449256484</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02784119195176309</v>
+        <v>0.03828264105190927</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>40</v>
+      </c>
+      <c r="J80" t="n">
+        <v>85</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3210667730.515862</v>
+        <v>4542685540.974265</v>
       </c>
       <c r="F81" t="n">
-        <v>0.116394306537032</v>
+        <v>0.09325562668173831</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02063607774409552</v>
+        <v>0.02124920183336854</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>38</v>
+      </c>
+      <c r="J81" t="n">
+        <v>85</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3768945941.469846</v>
+        <v>5591065223.809794</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1618850836274435</v>
+        <v>0.1568615923014659</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02071285089016341</v>
+        <v>0.01918321453017505</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>54</v>
+      </c>
+      <c r="J82" t="n">
+        <v>85</v>
+      </c>
+      <c r="K82" t="n">
+        <v>184.4107181078641</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1721465540.183492</v>
+        <v>2177714102.785783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1341941305945542</v>
+        <v>0.1123418818379179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02956068175016919</v>
+        <v>0.03014465533774058</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2316350315.856018</v>
+        <v>2543484514.972516</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1059388919736364</v>
+        <v>0.09094952985741059</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04541896542320587</v>
+        <v>0.04345501780172962</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3287050764.289334</v>
+        <v>3196180320.396593</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1756866204986707</v>
+        <v>0.1119341584914034</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04034699910908091</v>
+        <v>0.04031730899490946</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2330570222.930703</v>
+        <v>2319387290.637496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1195526753783718</v>
+        <v>0.1543825813832393</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01994358069040227</v>
+        <v>0.02233535519453633</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1086261064.524625</v>
+        <v>1270864778.953988</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1306787517023375</v>
+        <v>0.1527352917218892</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03301061374408662</v>
+        <v>0.03522647863341024</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2612767332.174848</v>
+        <v>3533975656.252859</v>
       </c>
       <c r="F88" t="n">
-        <v>0.176596643871597</v>
+        <v>0.1092484370699845</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02564174990841084</v>
+        <v>0.03025265357010662</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>85</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3198009584.754654</v>
+        <v>3269633834.148035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1155299895902497</v>
+        <v>0.127802395577508</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0252663965282191</v>
+        <v>0.0272530909919953</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1737835049.672825</v>
+        <v>1851467096.52399</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09091546687318373</v>
+        <v>0.08314897234254574</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0518252218947037</v>
+        <v>0.04772128520797865</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1563925388.480882</v>
+        <v>2000628345.017611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1875976071180103</v>
+        <v>0.187581725700107</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03791480947172021</v>
+        <v>0.04931573880823899</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2754013874.787597</v>
+        <v>2807172293.090147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09354937566099773</v>
+        <v>0.1090852225237606</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03403040151204811</v>
+        <v>0.03986565656676789</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3353961514.634367</v>
+        <v>4354898548.965804</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09745001563587399</v>
+        <v>0.1141429066544531</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05236949179898506</v>
+        <v>0.04992557639756195</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>38</v>
+      </c>
+      <c r="J93" t="n">
+        <v>85</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2030159501.617731</v>
+        <v>2475617774.903091</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1625410276669166</v>
+        <v>0.1328381187689944</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04334316406079115</v>
+        <v>0.02621885155811593</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2599562026.36807</v>
+        <v>2464699154.334311</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1338574828422196</v>
+        <v>0.09882590331040045</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04186254209595366</v>
+        <v>0.0494184952264385</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2345262826.773807</v>
+        <v>1635100896.582961</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09220813682888711</v>
+        <v>0.1322799298656591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0402538594113554</v>
+        <v>0.03341581717906462</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3847035553.221999</v>
+        <v>4105102568.470456</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1253609369930701</v>
+        <v>0.1137773214946679</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02642044102789729</v>
+        <v>0.02708971138016714</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>40</v>
+      </c>
+      <c r="J97" t="n">
+        <v>85</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3773463858.395719</v>
+        <v>3049263292.745256</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259089866779802</v>
+        <v>0.1012028698097991</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03193456028094691</v>
+        <v>0.03279397184730212</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>18</v>
+      </c>
+      <c r="J98" t="n">
+        <v>83</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2342562301.415586</v>
+        <v>3246362702.0243</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1472409137046383</v>
+        <v>0.09843059882313532</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445770361853897</v>
+        <v>0.02441615917736305</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3437267494.91748</v>
+        <v>3264092355.630436</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1204811973774575</v>
+        <v>0.1590254266053741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02330692129083544</v>
+        <v>0.02075373438479959</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>82</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2547979058.573075</v>
+        <v>3332339823.596452</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2142487578387338</v>
+        <v>0.2017007485574354</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04077294480360601</v>
+        <v>0.04350937218235765</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
